--- a/data/trans_camb/IP16B08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,85</t>
+          <t>0,0; 60,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 372,78</t>
+          <t>0,0; 152,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,36</t>
+          <t>0,0; 23,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>0,0; 23,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,95</t>
+          <t>0,0; 21,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,4</t>
+          <t>0,0; 21,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,12</t>
+          <t>0,0; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,54</t>
+          <t>0,0; 14,32</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,48</t>
+          <t>0,0; 30,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>0,0; 30,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,53</t>
+          <t>0,0; 27,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,6</t>
+          <t>0,0; 27,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,44</t>
+          <t>0,0; 17,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,02</t>
+          <t>0,0; 16,71</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 0,0</t>
+          <t>-71,35; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 0,0</t>
+          <t>-42,82; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 0,0</t>
+          <t>-71,35; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,11; 0,0</t>
+          <t>-42,82; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 7,01</t>
+          <t>-20,28; 6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,74</t>
+          <t>0,0; 16,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,22</t>
+          <t>0,0; 20,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>0,0; 22,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 8,8</t>
+          <t>-7,08; 8,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 14,06</t>
+          <t>1,5; 12,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 7,53</t>
+          <t>-20,33; 7,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,57</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,94</t>
+          <t>0,0; 26,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,91</t>
+          <t>0,0; 28,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 9,82</t>
+          <t>-7,18; 9,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,35</t>
+          <t>1,52; 14,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32,58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>32,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,44</t>
+          <t>0,0; 63,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>48,33%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>48,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 152,76</t>
+          <t>0,0; 160,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>4,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,48</t>
+          <t>0,0; 20,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,48</t>
+          <t>0,0; 26,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,73</t>
+          <t>0,0; 23,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,8</t>
+          <t>0,0; 24,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,85</t>
+          <t>0,0; 18,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,32</t>
+          <t>0,0; 16,28</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,98%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>4,98%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,68</t>
+          <t>0,0; 26,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,68</t>
+          <t>0,0; 36,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,78</t>
+          <t>0,0; 31,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,87</t>
+          <t>0,0; 33,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,43</t>
+          <t>0,0; 21,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,71</t>
+          <t>0,0; 19,43</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-18,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-71,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,16; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 0,0</t>
+          <t>-49,61; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,17 +989,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-18,05%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,16; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 0,0</t>
+          <t>-49,61; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-1,98</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>3,49</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 6,89</t>
+          <t>0,0; 20,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,24</t>
+          <t>0,0; 20,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,9</t>
+          <t>-18,88; 6,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,22</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 8,83</t>
+          <t>-5,61; 8,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,56</t>
+          <t>1,51; 13,05</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-2,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>3,62%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 7,4</t>
+          <t>0,0; 26,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,41</t>
+          <t>0,0; 26,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,43</t>
+          <t>-20,34; 7,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,6</t>
+          <t>0,0; 19,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 9,86</t>
+          <t>-5,68; 9,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 14,36</t>
+          <t>1,54; 15,0</t>
         </is>
       </c>
     </row>
